--- a/data/trans_bre/P29_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,77</t>
+          <t>-18,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-15,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,49</t>
+          <t>-17,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,04%</t>
+          <t>-56,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,53%</t>
+          <t>-51,6%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-54,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-36,96%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -8,19</t>
+          <t>-32,7; -9,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -1,12</t>
+          <t>-25,04; -7,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -5,89</t>
+          <t>-27,02; -6,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-64,86; -30,68</t>
+          <t>-17,69; 1,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,01; -2,18</t>
+          <t>-75,0; -32,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -21,61</t>
+          <t>-69,11; -27,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-69,63; -26,26</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-58,52; 7,59</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>-12,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-35,83%</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-40,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,84%</t>
+          <t>-9,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-25,86%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,57; -2,11</t>
+          <t>-22,17; -2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 4,34</t>
+          <t>-13,75; 8,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 5,2</t>
+          <t>-17,66; 2,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,32; -8,43</t>
+          <t>-3,99; 22,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 23,01</t>
+          <t>-63,22; -7,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 22,89</t>
+          <t>-45,97; 40,73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-54,22; 13,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 158,04</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,95</t>
+          <t>-20,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,78</t>
+          <t>-20,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,41%</t>
+          <t>24,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-38,48%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-39,75%</t>
+          <t>-54,56%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-50,22%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>118,58%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 8,7</t>
+          <t>-23,43; 15,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 2,72</t>
+          <t>-46,68; 7,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 2,61</t>
+          <t>-61,79; 6,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 76,86</t>
+          <t>-2,22; 48,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,49; 7,19</t>
+          <t>-77,77; 272,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,57; 9,84</t>
+          <t>-85,05; 42,91</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-90,38; 39,96</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; 633,78</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,34</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-13,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-47,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-37,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-44,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -6,38</t>
+          <t>-23,86; -8,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -2,1</t>
+          <t>-17,32; -4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -4,39</t>
+          <t>-21,61; -6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,39; -24,7</t>
+          <t>-6,17; 9,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -7,44</t>
+          <t>-63,05; -30,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -14,83</t>
+          <t>-52,17; -16,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-58,85; -25,54</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-24,03; 52,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P29_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-18,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-15,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-17,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,07</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-56,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-51,6%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-54,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-36,96%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-17.06299414349425</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-14.50278648605519</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-17.75146145339192</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.749860438361745</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.551937129771276</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4790595520064964</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5341720223655182</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3606390858780693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-32,7; -9,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-25,04; -7,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-27,02; -6,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,69; 1,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-75,0; -32,54</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-69,11; -27,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-69,63; -26,26</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-58,52; 7,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-29.32974735119089</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-23.65102353083438</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-27.14429472072462</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-17.3031630804495</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7301171973165103</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6669219530409952</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6952110330777388</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5813342521454677</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-8.342161586903018</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-5.548618154562381</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-6.439860344585194</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.681831758707107</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.308144139469291</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.2229364401457365</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.2506843827724994</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.09617641853107141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-12,01</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,63</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-40,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-9,2%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-25,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>36,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-22,17; -2,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 8,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,66; 2,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 22,67</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-63,22; -7,44</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-45,97; 40,73</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-54,22; 13,28</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 158,04</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-11.01144647160972</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.173772080809699</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.30860253850956</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.301724244939276</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3824939620966502</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.05003974187682911</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2099312499426592</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4600459067142673</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-20,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-20,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-21,65%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-54,56%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-50,22%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>118,58%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.916744302919</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.46965695554809</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-16.68553925439265</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.977265145339424</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6165611523203085</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4413845227227673</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4989502029720504</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1427343478462153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,43; 15,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-46,68; 7,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-61,79; 6,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 48,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-77,77; 272,18</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-85,05; 42,91</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-90,38; 39,96</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-17,09; 633,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.8901951771083108</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.812127529039881</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.043216513523604</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.97920740160839</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.03399288798882921</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.47618338740696</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2851365243655096</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.515563537002055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-14,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-13,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-47,75%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-37,49%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-44,05%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.587231635201817</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.88693318887559</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-20.53110070609822</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>23.75029086906514</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3412723620285181</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5531325368655932</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5172011577558755</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.141698189641442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; -8,17</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; -4,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,61; -6,99</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 9,85</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-63,05; -30,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-52,17; -16,04</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-58,85; -25,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-24,03; 52,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-25.81654451129908</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-46.24143106050361</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-61.89882091439534</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.15485498772658</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8092352459668121</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8479705003008903</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9116516169024581</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2010736321705047</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.66405827252508</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.440928711846828</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.35138391603762</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>48.72463180735507</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.10463799978134</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3730813646285863</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3923267797114677</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>6.221003433799225</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-13.52197484887713</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.638966946516693</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-12.8797163281077</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.437621867172417</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4690579645644664</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.342645433121948</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.4211857612529601</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.06727533302309073</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-21.38439117556275</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-15.97621286703798</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-20.77289317951151</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.162126093195383</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6274658416202612</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4958075067784888</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5756787117056598</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.204618204175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-7.120847277532144</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-3.017166463045962</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-6.352398394252353</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.609818417555614</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.2882380092022329</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1193292337882186</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2212194550933891</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5401752750941725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
